--- a/inst/models/coexistence.xlsx
+++ b/inst/models/coexistence.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">mg P / L / h</t>
   </si>
   <si>
-    <t xml:space="preserve">transport</t>
+    <t xml:space="preserve">im-/export</t>
   </si>
   <si>
     <t xml:space="preserve">1/tau * (Pin - P)</t>
@@ -496,10 +496,10 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.02"/>
@@ -681,7 +681,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.56"/>
@@ -781,7 +781,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.73"/>
@@ -1038,7 +1038,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.06"/>
